--- a/concordance.xlsx
+++ b/concordance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\richer poorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\The richer the poorer - Copie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4157A-0C3D-4E8B-9ADB-E61DAD499465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17AA9162-2F39-44C1-A30D-001129791B77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6620" xr2:uid="{8A351FF2-4AFC-4438-8A4D-83ED2DC9ED18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6615" xr2:uid="{8A351FF2-4AFC-4438-8A4D-83ED2DC9ED18}"/>
   </bookViews>
   <sheets>
     <sheet name="final consumption" sheetId="1" r:id="rId1"/>
@@ -1134,13 +1134,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DF0879-983A-4358-A706-39D1A979C722}">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="70" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>157</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>158</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>159</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>174</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>177</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>178</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>179</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>180</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>182</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>183</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>185</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>189</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>190</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>193</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>195</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>196</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>199</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>200</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>201</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>202</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>203</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>204</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>205</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>206</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>207</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>208</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>210</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>211</v>
       </c>
@@ -3892,9 +3892,9 @@
       <selection sqref="A1:B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>212</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>56</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>63</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>64</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>67</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>75</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>76</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>77</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>78</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>79</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>80</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>81</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>82</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>84</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>85</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>86</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>87</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>88</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>89</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>90</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>91</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>92</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>93</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>94</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>95</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>97</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>99</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>100</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>101</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>102</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>103</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>104</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>105</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>106</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>107</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>108</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>109</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>110</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>111</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>112</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>113</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>114</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>115</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>116</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>117</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>118</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>119</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>120</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>121</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>122</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>124</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>125</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>126</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>127</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>128</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>129</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>130</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>131</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>132</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>133</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>134</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>135</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>136</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>137</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>138</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>139</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>140</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>141</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>142</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>143</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>144</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>145</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>146</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>147</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>148</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>149</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>150</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>151</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>152</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>153</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>154</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>155</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>156</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>157</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>158</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>159</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>160</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>161</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>162</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>163</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>164</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>165</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>166</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>167</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>168</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>169</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>170</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>171</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>172</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>173</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>174</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>175</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>176</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>177</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>178</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>179</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>180</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>181</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>182</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>183</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>184</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>185</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>186</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>187</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>188</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>189</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>190</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>191</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>192</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>193</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>194</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>195</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>196</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>197</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>198</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>199</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>200</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>201</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>202</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>203</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>204</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>205</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>206</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>207</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>208</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>209</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>210</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>211</v>
       </c>
